--- a/inst/exdata/qfb_template.xlsx
+++ b/inst/exdata/qfb_template.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\fieldbook\inst\exdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="fb" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -23,9 +30,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -61,6 +67,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,13 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -359,6 +376,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>